--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VPS-Monitor\Teamwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IMS-datacenter\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Taido" sheetId="2" r:id="rId2"/>
+    <sheet name="Budget" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -194,12 +194,33 @@
   <si>
     <t>thời gian nhóm gặp chủ yếu là từ: slot 2+3 hoặc 4+5+6</t>
   </si>
+  <si>
+    <t>Trước đó</t>
+  </si>
+  <si>
+    <t>Chi tiêu</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Quỹ</t>
+  </si>
+  <si>
+    <t>Mỗi người đóng 100k</t>
+  </si>
+  <si>
+    <t>Đi uống với anh Mạnh hỏi về đồ án</t>
+  </si>
+  <si>
+    <t>Đi uống với anh Tùng, nhờ anh chỉ về code nền tảng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +279,15 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -395,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,7 +486,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,7 +975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -954,22 +990,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="1" t="s">
@@ -1125,7 +1161,7 @@
   <dimension ref="A4:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1201,13 +1237,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="20"/>
+      <c r="C5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="20">
+        <v>42384</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="8">
+        <v>300</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IMS-datacenter\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IMS-datacenter\DOCUMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Đi uống với anh Tùng, nhờ anh chỉ về code nền tảng</t>
+  </si>
+  <si>
+    <t>Mua ổ cắm điện 6 lỗ, LION</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,11 +492,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,22 +996,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="1" t="s">
@@ -1237,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E6"/>
+  <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1250,16 +1256,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1296,6 +1302,18 @@
         <v>300</v>
       </c>
       <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="20">
+        <v>42389</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Mua ổ cắm điện 6 lỗ, LION</t>
+  </si>
+  <si>
+    <t>Tiên đi uống nước với anh Tùng</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -419,6 +422,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -428,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,10 +509,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,22 +1016,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="1" t="s">
@@ -1075,7 +1095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1098,7 +1118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1243,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E7"/>
+  <dimension ref="B3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1307,12 +1327,23 @@
       <c r="B7" s="20">
         <v>42389</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8">
         <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="24">
+        <v>42400</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="25">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Taido" sheetId="2" r:id="rId2"/>
     <sheet name="Budget" sheetId="3" r:id="rId3"/>
+    <sheet name="TaskCode" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -220,6 +221,54 @@
   </si>
   <si>
     <t>Tiên đi uống nước với anh Tùng</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Group of Object</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Rack</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Create Customer</t>
+  </si>
+  <si>
+    <t>Edit Customer</t>
+  </si>
+  <si>
+    <t>Change status of Account</t>
+  </si>
+  <si>
+    <t>View profile of Customer, Staff</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -512,14 +561,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,22 +1065,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="1" t="s">
@@ -1265,7 +1314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1336,13 +1385,13 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="24">
+      <c r="B8" s="23">
         <v>42400</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>20</v>
       </c>
     </row>
@@ -1351,4 +1400,103 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="27.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Taido" sheetId="2" r:id="rId2"/>
+    <sheet name="Chú ý" sheetId="2" r:id="rId2"/>
     <sheet name="Budget" sheetId="3" r:id="rId3"/>
-    <sheet name="TaskCode" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -223,52 +222,18 @@
     <t>Tiên đi uống nước với anh Tùng</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Group of Object</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Request</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Rack</t>
-  </si>
-  <si>
-    <t>Account</t>
-  </si>
-  <si>
-    <t>Create Customer</t>
-  </si>
-  <si>
-    <t>Edit Customer</t>
-  </si>
-  <si>
-    <t>Change status of Account</t>
-  </si>
-  <si>
-    <t>View profile of Customer, Staff</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>3 tasks liên quan đến upgrade account, làm trễ và không confirm tiến độ, commit code theo chỉ dẫn của leader. 
+Task bắt đầu từ ngày 15/2 đến 22/2 vẫn chưa xong. Deadline ban đầu là 19/2.
+Yêu cầu cải thiện: Làm xong task nào thì commit ngay và thông báo cho leader. Không xong cũng phải nói thật là chưa xong để leader nắm được tình hình. Luôn mở slack để biết tình hình của nhóm và nội dung mình được assign</t>
+  </si>
+  <si>
+    <t>Hà và Tiên đi cà phê với anh Tùng ở Góc Hà Nội</t>
+  </si>
+  <si>
+    <t>Tổng</t>
   </si>
 </sst>
 </file>
@@ -472,9 +437,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -561,14 +524,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1065,22 +1028,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="1" t="s">
@@ -1144,7 +1107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1167,7 +1130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1236,7 +1199,7 @@
   <dimension ref="A4:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1274,13 +1237,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="114">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="14">
+        <v>42421</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="7">
@@ -1312,19 +1281,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E8"/>
+  <dimension ref="B3:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.75" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15">
+    <row r="3" spans="2:6" ht="15">
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
@@ -1337,8 +1307,9 @@
       <c r="E3" s="21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="20" t="s">
         <v>35</v>
       </c>
@@ -1350,7 +1321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="20"/>
       <c r="C5" s="8" t="s">
         <v>40</v>
@@ -1360,7 +1331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6" s="20">
         <v>42384</v>
       </c>
@@ -1372,7 +1343,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" s="20">
         <v>42389</v>
       </c>
@@ -1384,119 +1355,68 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="23">
+    <row r="8" spans="2:6">
+      <c r="B8" s="20">
         <v>42400</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="24">
+      <c r="D8" s="8"/>
+      <c r="E8" s="22">
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="20">
+        <v>42421</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="8">
+        <f>SUM(D4:D12)</f>
+        <v>300</v>
+      </c>
+      <c r="E13" s="8">
+        <f>SUM(E4:E12)</f>
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:C13"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="27.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IMS-datacenter\DOCUMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\new place\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chú ý" sheetId="2" r:id="rId2"/>
     <sheet name="Budget" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -235,23 +235,29 @@
   <si>
     <t>Tổng</t>
   </si>
+  <si>
+    <t>Bánh mì và nước ở the coffeehouse đợt 1</t>
+  </si>
+  <si>
+    <t>Bánh mì và nước ở the coffeehouse đợt 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -260,7 +266,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -303,7 +309,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -524,10 +530,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1013,37 +1019,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="3" width="19.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="1" t="s">
@@ -1202,11 +1208,11 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="62.25" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:4" s="18" customFormat="1">
@@ -1237,7 +1243,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="114">
+    <row r="6" spans="1:4" ht="120">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1281,20 +1287,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F13"/>
+  <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.75" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15">
+    <row r="3" spans="2:6">
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
@@ -1307,7 +1313,7 @@
       <c r="E3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="20" t="s">
@@ -1380,40 +1386,58 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8">
+        <v>300</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="8">
-        <f>SUM(D4:D12)</f>
-        <v>300</v>
-      </c>
-      <c r="E13" s="8">
-        <f>SUM(E4:E12)</f>
-        <v>283</v>
+      <c r="C14" s="25"/>
+      <c r="D14" s="8">
+        <f>SUM(D4:D13)</f>
+        <v>600</v>
+      </c>
+      <c r="E14" s="8">
+        <f>SUM(E4:E13)</f>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20340" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Bánh mì và nước ở the coffeehouse đợt 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ăn kem </t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1289,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1416,10 +1419,16 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="20">
+        <v>42454</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="25" t="s">
@@ -1432,7 +1441,7 @@
       </c>
       <c r="E14" s="8">
         <f>SUM(E4:E13)</f>
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t xml:space="preserve">ăn kem </t>
+  </si>
+  <si>
+    <t>Uống nước với anh Tùng ở góc hà nội</t>
+  </si>
+  <si>
+    <t>Cà phê với anh mạnh ở open space</t>
+  </si>
+  <si>
+    <t>Uống nước với anh mạnh ở mộc high-end</t>
   </si>
 </sst>
 </file>
@@ -1290,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F14"/>
+  <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1420,33 +1429,101 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="20">
-        <v>42454</v>
+        <v>42438</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="20">
+        <v>42454</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="25" t="s">
+    <row r="15" spans="2:6">
+      <c r="B15" s="20">
+        <v>42444</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="20">
+        <v>42456</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="8">
+        <v>200</v>
+      </c>
+      <c r="E16" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="20">
+        <v>42465</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="20"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="20"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="20"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="8">
-        <f>SUM(D4:D13)</f>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8">
+        <f>SUM(D4:D14)</f>
         <v>600</v>
       </c>
-      <c r="E14" s="8">
-        <f>SUM(E4:E13)</f>
-        <v>436</v>
+      <c r="E21" s="8">
+        <f>SUM(E4:E17)</f>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Uống nước với anh mạnh ở mộc high-end</t>
+  </si>
+  <si>
+    <t>In thử bản 38tr. Kẹp lò xo 15k, 3 tờ A3 12k, 35 tờ A4 màu 35k</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1305,7 @@
   <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1490,10 +1493,16 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="20"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="20">
+        <v>42473</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="20"/>
@@ -1517,8 +1526,8 @@
         <v>600</v>
       </c>
       <c r="E21" s="8">
-        <f>SUM(E4:E17)</f>
-        <v>806</v>
+        <f>SUM(E4:E18)</f>
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>Lê Thị Thu Hà</t>
     <phoneticPr fontId="1"/>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>In thử bản 38tr. Kẹp lò xo 15k, 3 tờ A3 12k, 35 tờ A4 màu 35k</t>
+  </si>
+  <si>
+    <t>In bản chính thức. 5 bộ 200tr, 5 bộ 38tr</t>
+  </si>
+  <si>
+    <t>Uống nước tại Moda</t>
+  </si>
+  <si>
+    <t>Ăn trưa mì xào bò 3 hộp</t>
+  </si>
+  <si>
+    <t>Mua bánh mì cho anh Tùng</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B3:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1505,34 +1517,82 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="20"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="20">
+        <v>42475</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="8">
+        <v>780</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="20"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="20">
+        <v>42475</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="20">
+        <v>42109</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="20">
+        <v>42475</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="20"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="20"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="8">
+      <c r="C25" s="25"/>
+      <c r="D25" s="8">
         <f>SUM(D4:D14)</f>
         <v>600</v>
       </c>
-      <c r="E21" s="8">
-        <f>SUM(E4:E18)</f>
-        <v>868</v>
+      <c r="E25" s="8">
+        <f>SUM(E4:E24)</f>
+        <v>1809</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Member.xlsx
+++ b/Document/Member.xlsx
@@ -1317,7 +1317,7 @@
   <dimension ref="B3:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="B23:E23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1573,7 +1573,9 @@
     <row r="24" spans="2:5">
       <c r="B24" s="20"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8">
+        <v>1010</v>
+      </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5">
@@ -1582,8 +1584,8 @@
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="8">
-        <f>SUM(D4:D14)</f>
-        <v>600</v>
+        <f>SUM(D4:D24)</f>
+        <v>1810</v>
       </c>
       <c r="E25" s="8">
         <f>SUM(E4:E24)</f>
